--- a/journals/attendance/Fall2020_JITI_Attendance.xlsx
+++ b/journals/attendance/Fall2020_JITI_Attendance.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattyang/Documents/Fall 2020/VIP/vip-research/journals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattyang/Documents/Fall 2020/VIP/vip-research/journals/attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD81F19D-D29E-D14B-A27B-31038A66BA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE6E03E-D252-2245-8FA6-9384B500F401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="4460" windowWidth="36060" windowHeight="21860" xr2:uid="{79D26D31-62A3-A34A-BB52-021971B10311}"/>
+    <workbookView xWindow="9560" yWindow="2060" windowWidth="28300" windowHeight="19300" xr2:uid="{79D26D31-62A3-A34A-BB52-021971B10311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Attendance</t>
   </si>
@@ -63,6 +64,9 @@
   </si>
   <si>
     <t>Rachel</t>
+  </si>
+  <si>
+    <t>Maximum</t>
   </si>
 </sst>
 </file>
@@ -70,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="ddd\ m/d/yy"/>
+    <numFmt numFmtId="164" formatCode="ddd\ m/d/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +86,15 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,17 +154,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,16 +483,10 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -491,6 +499,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -503,6 +514,7 @@
         <v>44096</v>
       </c>
       <c r="D2" s="4">
+        <f>C2+7</f>
         <v>44103</v>
       </c>
       <c r="E2" s="4">
@@ -517,135 +529,285 @@
       <c r="H2" s="4">
         <v>44131</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="I2" s="4">
+        <f>H2+7</f>
+        <v>44138</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:M2" si="0">I2+7</f>
+        <v>44145</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>44152</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <f>SUM(C3:M3)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
-        <f t="shared" ref="B4:B9" si="0">SUM(C4:M4)</f>
-        <v>1</v>
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:B10" si="1">SUM(C4:M4)</f>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B5" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B6" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B7" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B8" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B9" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
